--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 15.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 15.xlsx
@@ -648,7 +648,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -917,7 +917,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1115,7 +1115,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1188,7 +1188,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
